--- a/Projetos/Bot Whatsapp/clientes.xlsx
+++ b/Projetos/Bot Whatsapp/clientes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documentos\PycharmProjects\Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\Documentos\MeusProjetos\Python\Projetos\Bot Whatsapp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37535F6-4C99-44B7-BD89-72584892C2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC6B601-3490-4C21-9A0C-5F843E4D7A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>nome</t>
   </si>
@@ -36,13 +36,46 @@
     <t>vencimento</t>
   </si>
   <si>
-    <t>yasmin</t>
-  </si>
-  <si>
-    <t>italol</t>
-  </si>
-  <si>
-    <t>Thallys</t>
+    <t>nome 1</t>
+  </si>
+  <si>
+    <t>nome 2</t>
+  </si>
+  <si>
+    <t>nome 3</t>
+  </si>
+  <si>
+    <t>nome 4</t>
+  </si>
+  <si>
+    <t>nome 5</t>
+  </si>
+  <si>
+    <t>nome 6</t>
+  </si>
+  <si>
+    <t>nome 7</t>
+  </si>
+  <si>
+    <t>n de telefone 1</t>
+  </si>
+  <si>
+    <t>n de telefone 2</t>
+  </si>
+  <si>
+    <t>n de telefone 3</t>
+  </si>
+  <si>
+    <t>n de telefone 4</t>
+  </si>
+  <si>
+    <t>n de telefone 5</t>
+  </si>
+  <si>
+    <t>n de telefone 6</t>
+  </si>
+  <si>
+    <t>n de telefone 7</t>
   </si>
 </sst>
 </file>
@@ -52,9 +85,15 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -423,7 +462,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -442,12 +481,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>5512982828100</v>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="2">
         <v>45626</v>
@@ -457,8 +496,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>5512997940208</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>45627</v>
@@ -468,28 +507,56 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>5512996373601</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>45628</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45629</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45630</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45631</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45632</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
@@ -508,6 +575,7 @@
       <c r="C12" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
